--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="559">
   <si>
     <t>Path</t>
   </si>
@@ -759,6 +759,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-csd-ext-02:The name must end with 'AU' {endsWith('AU')}</t>
+  </si>
+  <si>
     <t>CodeSystem.title</t>
   </si>
   <si>
@@ -769,6 +773,10 @@
   </si>
   <si>
     <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-csd-ext-03:The title must end with ' AU' {endsWith(' AU')}</t>
   </si>
   <si>
     <t>Definition.title</t>
@@ -1067,6 +1075,10 @@
   </si>
   <si>
     <t>This description can be used to capture details such as why the code system was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the code system as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the code system is presumed to be the predominant language in the place the code system was created).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+hl7au-csd-ext-04:The description must start with 'Extended concept codes for ' {startsWith('Extended concept codes for ')}hl7au-csd-ext-05:The description must end with ' for use in an Australian context.' {endsWith(' for use in an Australian context.')}</t>
   </si>
   <si>
     <t>Definition.description</t>
@@ -5261,7 +5273,7 @@
         <v>236</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>61</v>
+        <v>237</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
@@ -5278,7 +5290,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5304,13 +5316,13 @@
         <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5360,7 +5372,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -5372,13 +5384,13 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -5389,7 +5401,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5415,13 +5427,13 @@
         <v>126</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5450,10 +5462,10 @@
         <v>180</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -5471,7 +5483,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>48</v>
@@ -5489,10 +5501,10 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -5500,7 +5512,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5523,19 +5535,19 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -5584,7 +5596,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5602,10 +5614,10 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5613,11 +5625,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5636,16 +5648,16 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5695,7 +5707,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5713,10 +5725,10 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5724,7 +5736,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5750,16 +5762,16 @@
         <v>50</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5808,7 +5820,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5820,16 +5832,16 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5837,7 +5849,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5860,16 +5872,16 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5919,7 +5931,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5937,7 +5949,7 @@
         <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5948,7 +5960,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6057,7 +6069,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6168,7 +6180,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6194,13 +6206,13 @@
         <v>50</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6250,7 +6262,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6279,7 +6291,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6302,13 +6314,13 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6359,7 +6371,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -6388,7 +6400,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6497,7 +6509,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6608,7 +6620,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6634,10 +6646,10 @@
         <v>126</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6646,7 +6658,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>40</v>
@@ -6667,10 +6679,10 @@
         <v>180</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6688,7 +6700,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6697,13 +6709,13 @@
         <v>48</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>61</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -6717,7 +6729,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6743,23 +6755,23 @@
         <v>50</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>40</v>
@@ -6801,7 +6813,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6816,7 +6828,7 @@
         <v>61</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -6830,7 +6842,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6856,23 +6868,23 @@
         <v>126</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>40</v>
@@ -6893,10 +6905,10 @@
         <v>180</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6914,7 +6926,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6929,7 +6941,7 @@
         <v>61</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -6943,7 +6955,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6966,16 +6978,16 @@
         <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7025,7 +7037,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -7054,7 +7066,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7080,10 +7092,10 @@
         <v>212</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7134,7 +7146,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -7149,7 +7161,7 @@
         <v>61</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -7163,11 +7175,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7186,16 +7198,16 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7245,7 +7257,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7257,13 +7269,13 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>61</v>
+        <v>339</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -7274,7 +7286,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7297,19 +7309,19 @@
         <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -7358,7 +7370,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7376,7 +7388,7 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -7387,7 +7399,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7413,13 +7425,13 @@
         <v>186</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7448,10 +7460,10 @@
         <v>108</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -7469,7 +7481,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7487,7 +7499,7 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -7498,7 +7510,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7607,7 +7619,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7718,7 +7730,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7744,16 +7756,16 @@
         <v>104</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7802,7 +7814,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7817,7 +7829,7 @@
         <v>61</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -7831,7 +7843,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7940,7 +7952,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8051,7 +8063,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8077,23 +8089,23 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>40</v>
@@ -8135,7 +8147,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -8150,7 +8162,7 @@
         <v>61</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8164,7 +8176,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8190,13 +8202,13 @@
         <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8246,7 +8258,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8261,7 +8273,7 @@
         <v>61</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -8275,7 +8287,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8301,21 +8313,21 @@
         <v>126</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>40</v>
@@ -8357,7 +8369,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8372,7 +8384,7 @@
         <v>61</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -8386,7 +8398,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8412,14 +8424,14 @@
         <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -8468,7 +8480,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8483,7 +8495,7 @@
         <v>61</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
@@ -8497,7 +8509,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8520,19 +8532,19 @@
         <v>49</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -8581,7 +8593,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8596,7 +8608,7 @@
         <v>61</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -8610,7 +8622,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8636,16 +8648,16 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8694,7 +8706,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8709,7 +8721,7 @@
         <v>61</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -8723,7 +8735,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8746,16 +8758,16 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8805,7 +8817,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8823,10 +8835,10 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>172</v>
@@ -8834,11 +8846,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8857,19 +8869,19 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8918,7 +8930,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8930,13 +8942,13 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8947,7 +8959,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8970,16 +8982,16 @@
         <v>49</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9029,7 +9041,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -9058,7 +9070,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9081,16 +9093,16 @@
         <v>49</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9140,7 +9152,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -9169,7 +9181,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9195,13 +9207,13 @@
         <v>126</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9230,10 +9242,10 @@
         <v>180</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -9251,7 +9263,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -9280,11 +9292,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9303,16 +9315,16 @@
         <v>49</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9362,7 +9374,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -9391,7 +9403,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9414,16 +9426,16 @@
         <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9473,7 +9485,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9502,7 +9514,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9528,10 +9540,10 @@
         <v>126</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9561,28 +9573,28 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>48</v>
@@ -9611,7 +9623,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9634,16 +9646,16 @@
         <v>49</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9693,7 +9705,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9722,7 +9734,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9745,16 +9757,16 @@
         <v>49</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9804,7 +9816,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9833,7 +9845,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9856,16 +9868,16 @@
         <v>49</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9915,7 +9927,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9944,7 +9956,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10053,7 +10065,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10164,11 +10176,11 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10190,10 +10202,10 @@
         <v>69</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>72</v>
@@ -10248,7 +10260,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10277,7 +10289,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10303,10 +10315,10 @@
         <v>126</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10357,7 +10369,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>48</v>
@@ -10386,7 +10398,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10412,10 +10424,10 @@
         <v>50</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10466,7 +10478,7 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
@@ -10495,7 +10507,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10521,10 +10533,10 @@
         <v>126</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10554,28 +10566,28 @@
         <v>180</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>48</v>
@@ -10604,7 +10616,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10630,10 +10642,10 @@
         <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10684,7 +10696,7 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>48</v>
@@ -10713,7 +10725,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10736,13 +10748,13 @@
         <v>49</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10793,7 +10805,7 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10822,7 +10834,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10931,7 +10943,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11042,11 +11054,11 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11068,10 +11080,10 @@
         <v>69</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>72</v>
@@ -11126,7 +11138,7 @@
         <v>40</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -11155,7 +11167,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11181,10 +11193,10 @@
         <v>126</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11235,7 +11247,7 @@
         <v>40</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>48</v>
@@ -11264,7 +11276,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11290,10 +11302,10 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11344,7 +11356,7 @@
         <v>40</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>41</v>
@@ -11373,7 +11385,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11399,10 +11411,10 @@
         <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11453,7 +11465,7 @@
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>41</v>
@@ -11482,7 +11494,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11508,10 +11520,10 @@
         <v>126</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11541,28 +11553,28 @@
         <v>180</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>48</v>
@@ -11591,7 +11603,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11614,16 +11626,16 @@
         <v>40</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11673,7 +11685,7 @@
         <v>40</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>41</v>
@@ -11702,7 +11714,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11811,7 +11823,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11922,11 +11934,11 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11948,10 +11960,10 @@
         <v>69</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>72</v>
@@ -12006,7 +12018,7 @@
         <v>40</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -12035,7 +12047,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12061,10 +12073,10 @@
         <v>126</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12115,7 +12127,7 @@
         <v>40</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>48</v>
@@ -12144,7 +12156,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12170,10 +12182,10 @@
         <v>50</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12224,7 +12236,7 @@
         <v>40</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>41</v>
@@ -12253,7 +12265,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12279,10 +12291,10 @@
         <v>50</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12333,7 +12345,7 @@
         <v>40</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>41</v>
@@ -12362,7 +12374,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12385,19 +12397,19 @@
         <v>40</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>40</v>
@@ -12446,7 +12458,7 @@
         <v>40</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>41</v>
@@ -12475,7 +12487,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12584,7 +12596,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12695,11 +12707,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12721,10 +12733,10 @@
         <v>69</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>72</v>
@@ -12779,7 +12791,7 @@
         <v>40</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -12808,7 +12820,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12834,13 +12846,13 @@
         <v>126</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -12890,7 +12902,7 @@
         <v>40</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -12919,7 +12931,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12945,13 +12957,13 @@
         <v>104</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
@@ -12980,10 +12992,10 @@
         <v>108</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>40</v>
@@ -13001,7 +13013,7 @@
         <v>40</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -13030,7 +13042,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13056,10 +13068,10 @@
         <v>50</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13110,7 +13122,7 @@
         <v>40</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>48</v>
@@ -13139,7 +13151,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13162,13 +13174,13 @@
         <v>40</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13219,7 +13231,7 @@
         <v>40</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -13248,7 +13260,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13357,7 +13369,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13468,11 +13480,11 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13494,10 +13506,10 @@
         <v>69</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>72</v>
@@ -13552,7 +13564,7 @@
         <v>40</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>41</v>
@@ -13581,7 +13593,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13607,10 +13619,10 @@
         <v>126</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13661,7 +13673,7 @@
         <v>40</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>48</v>
@@ -13690,7 +13702,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13713,13 +13725,13 @@
         <v>40</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13770,7 +13782,7 @@
         <v>40</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>48</v>
@@ -13799,7 +13811,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13825,10 +13837,10 @@
         <v>40</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13879,7 +13891,7 @@
         <v>40</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>csd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}
-csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}hl7au-csd-base-05:The url must end with the id value {url.replace('http://terminology.hl7.org.au/CodeSystem/','') = id}</t>
+csd-1:Within a code system definition, all the codes SHALL be unique {concept.code.combine($this.descendants().concept.code).isDistinct()}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}hl7au-csd-base-05:The url should end with the id value, unless it is an AU extended CodeSystem {url.replace('http://terminology.hl7.org.au/CodeSystem/','') = id}</t>
   </si>
   <si>
     <t>N/A</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
@@ -1672,7 +1672,7 @@
     <t>Formal identifier for the property</t>
   </si>
   <si>
-    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R4/codesystem-concept-properties.html) code system.</t>
+    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](codesystem-concept-properties.html) code system.</t>
   </si>
   <si>
     <t>CodeSystem.property.description</t>

--- a/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
+++ b/docs/StructureDefinition-structuredefinition-hl7au-csd-ext-1.xlsx
@@ -2172,45 +2172,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.96484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.24609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="116.32421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.6015625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="116.328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.8828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
